--- a/test_data/481-20_J3316158.final.report(sorted).xlsx
+++ b/test_data/481-20_J3316158.final.report(sorted).xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="None" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Harmful" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VUS" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Low VAF Variants" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FLT3 ITDs" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hotspot Exceptions" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="None" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Harmful" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="VUS" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Low VAF Variants" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="FLT3 ITDs" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Hotspot Exceptions" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BR9"/>
+  <dimension ref="A1:BR4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1021,36 +1021,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32417962</v>
+        <v>119149355</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TATGATGATGATGATGATGA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>TATGATGATGATGATGA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>WT1</t>
+          <t>CBL</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>c.1114-9T&gt;C</t>
+          <t>c.1380_1382del</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>p.Asp460del</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>NM_005188</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0.358246</v>
+        <v>0.0242161</v>
       </c>
       <c r="J3" t="n">
-        <v>1021</v>
+        <v>78</v>
       </c>
       <c r="K3" t="n">
-        <v>2850</v>
+        <v>3221</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -1062,174 +1072,110 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>COSV60072524</t>
+          <t>COSV50629628</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[["prostate", 2]]</t>
+          <t>[["NS", 4], ["bone", 2], ["upper aerodigestive tract", 1], ["skin", 1], ["stomach", 1], ["lung", 1], ["haematopoietic and lymphoid tissue", 1]]</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>241475.0</t>
+          <t>570415.0</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>Benign/Likely benign</t>
-        </is>
-      </c>
-      <c r="T3" t="n">
-        <v>0.00454964</v>
-      </c>
-      <c r="V3" t="n">
-        <v>10.86</v>
+          <t>Uncertain significance</t>
+        </is>
       </c>
       <c r="Y3" t="n">
-        <v>468</v>
+        <v>28</v>
       </c>
       <c r="Z3" t="n">
-        <v>553</v>
+        <v>50</v>
       </c>
       <c r="AA3" t="n">
-        <v>810</v>
+        <v>1413</v>
       </c>
       <c r="AB3" t="n">
-        <v>1019</v>
+        <v>1730</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.064737120905242</v>
+        <v>0.6961061652383725</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.4323083702470536</v>
+        <v>0.1336480166342834</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.458455522971652</v>
+        <v>0.3625</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.008600289001127999</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>2737</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>797</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>995</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>797</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>995</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>462</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>477</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0.492</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0.6481</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>1.209</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>0.0191</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>0.3438</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>462</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>477</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>0.492</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>0.6481</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>1.209</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>0.0191</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>0.3438</v>
+        <v>0.0183160975169163</v>
       </c>
       <c r="BB3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC3" t="n">
-        <v>14.9713</v>
+        <v>1.0862</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.510039</v>
+        <v>0.591083</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.412</v>
+        <v>0.122</v>
       </c>
       <c r="BG3" t="inlineStr">
         <is>
-          <t>snp</t>
+          <t>del</t>
         </is>
       </c>
       <c r="BH3" t="n">
-        <v>10667.1</v>
+        <v>874.663</v>
+      </c>
+      <c r="BI3" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
       </c>
       <c r="BJ3" t="inlineStr">
         <is>
-          <t>INT</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="BK3" t="inlineStr">
         <is>
-          <t>ENST00000452863.9</t>
+          <t>ENST00000264033.6</t>
         </is>
       </c>
       <c r="BL3" t="inlineStr">
         <is>
-          <t>{"WT1": [["", "", "INT", "ENST00000332351.8", "c.1063-9T&gt;C"], ["", "", "INT,NMD", "ENST00000379077.8", "c.*298-9T&gt;C"], ["P19544", "", "INT", "ENST00000379079.8", "c.463-9T&gt;C"], ["", "", "INT", "ENST00000448076.8", "c.1114-9T&gt;C"], ["", "", "INT", "ENST00000452863.9", "c.1114-9T&gt;C"], ["", "", "INT,PTR", "ENST00000526685.2", ""], ["", "", "INT,PTR", "ENST00000527775.1", ""], ["P19544", "", "INT", "ENST00000530998.5", "c.412-9T&gt;C"], ["", "", "INT", "ENST00000640146.2", "c.439-9T&gt;C"], ["", "", "INT,PTR", "ENST00000651668.1", ""], ["", "", "INT,PTR", "ENST00000652579.1", ""], ["", "", "INT,PTR", "ENST00000652724.1", ""]]}</t>
+          <t>{"CBL": [["P22681", "p.Asp460del", "IND", "ENST00000264033.6", "c.1380_1382del"], ["", "p.Asp460del", "IND", "ENST00000634586.1", "c.1380_1382del"], ["", "p.Asp460del", "IND", "ENST00000634840.1", "c.1380_1382del"]]}</t>
         </is>
       </c>
       <c r="BN3" t="inlineStr">
         <is>
-          <t>rs5030274</t>
+          <t>rs397507494</t>
         </is>
       </c>
       <c r="BO3" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.0169491525423728</v>
+        <v>0.7627118644067796</v>
       </c>
       <c r="BQ3" t="inlineStr">
         <is>
-          <t>6609-21</t>
+          <t>5331-21_L3219563; 5714-21_L4114728; 1990-21_K8130344; 7424-21_L6296176; 6815-21_L5309745; 7024-21_L608B767; 126-22; 6377-21; 7179-21; 1622-21; 50-22; 6609-21; 1263-22_L9016385; 4157-22_M3136370; 1859-20_J7265546; 1061-21_K6256100; 846-22_L808C391; 667-22_L8015964; 7153-22_M7256464; 7399-22_M806A652; 5046-19_K3097222; 3887-22_M227C511; 2600-21_K9119359; 6773-22_M7044683; 6529-22_M6269608</t>
         </is>
       </c>
       <c r="BR3" t="inlineStr">
@@ -1241,53 +1187,53 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>chr11</t>
+          <t>chr17</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>119149355</v>
+        <v>29652931</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TATGATGATGATGATGATGA</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>TATGATGATGATGATGA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CBL</t>
+          <t>NF1</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>c.1380_1382del</t>
+          <t>c.4929G&gt;A</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>p.Asp460del</t>
+          <t>p.Val1643=</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>NM_005188</t>
+          <t>NM_001042492</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0.0242161</v>
+        <v>0.35975</v>
       </c>
       <c r="J4" t="n">
-        <v>78</v>
+        <v>1380</v>
       </c>
       <c r="K4" t="n">
-        <v>3221</v>
+        <v>3836</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -1296,75 +1242,149 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>0/1</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>COSV50629628</t>
+          <t>COSV55986970</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[["NS", 4], ["bone", 2], ["upper aerodigestive tract", 1], ["skin", 1], ["stomach", 1], ["lung", 1], ["haematopoietic and lymphoid tissue", 1]]</t>
+          <t>[["prostate", 4], ["meninges", 4]]</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>570415.0</t>
+          <t>184149.0</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>Uncertain significance</t>
+          <t>Benign</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>0.0149755</v>
+      </c>
+      <c r="V4" t="n">
+        <v>7.115</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Tolerated</t>
         </is>
       </c>
       <c r="Y4" t="n">
-        <v>28</v>
+        <v>782</v>
       </c>
       <c r="Z4" t="n">
-        <v>50</v>
+        <v>598</v>
       </c>
       <c r="AA4" t="n">
-        <v>1413</v>
+        <v>1440</v>
       </c>
       <c r="AB4" t="n">
-        <v>1730</v>
+        <v>1016</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.6961061652383725</v>
+        <v>0.9225542455098076</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.1336480166342834</v>
+        <v>0.2466787029267808</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.3625</v>
+        <v>0.5665701881331404</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.0183160975169163</v>
+        <v>8.241136159024341e-07</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>3563</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>779</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>526</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.5968</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>1.4801</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.9985000000000001</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>779</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>526</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0.5968</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>1.4801</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0.9985000000000001</v>
       </c>
       <c r="BB4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC4" t="n">
-        <v>1.0862</v>
+        <v>15.0577</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.591083</v>
+        <v>0.512854</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.122</v>
+        <v>0.233</v>
       </c>
       <c r="BG4" t="inlineStr">
         <is>
-          <t>del</t>
+          <t>snp</t>
         </is>
       </c>
       <c r="BH4" t="n">
-        <v>874.663</v>
+        <v>14440.4</v>
       </c>
       <c r="BI4" t="inlineStr">
         <is>
@@ -1373,1052 +1393,31 @@
       </c>
       <c r="BJ4" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>SYN</t>
         </is>
       </c>
       <c r="BK4" t="inlineStr">
         <is>
-          <t>ENST00000264033.6</t>
+          <t>ENST00000358273.9</t>
         </is>
       </c>
       <c r="BL4" t="inlineStr">
         <is>
-          <t>{"CBL": [["P22681", "p.Asp460del", "IND", "ENST00000264033.6", "c.1380_1382del"], ["", "p.Asp460del", "IND", "ENST00000634586.1", "c.1380_1382del"], ["", "p.Asp460del", "IND", "ENST00000634840.1", "c.1380_1382del"]]}</t>
+          <t>{"NF1": [["P21359", "p.Val1622=", "SYN", "ENST00000356175.7", "c.4866G&gt;A"], ["P21359", "p.Val1643=", "SYN", "ENST00000358273.9", "c.4929G&gt;A"]]}</t>
         </is>
       </c>
       <c r="BN4" t="inlineStr">
         <is>
-          <t>rs397507494</t>
+          <t>rs17880521</t>
         </is>
       </c>
       <c r="BO4" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.7627118644067796</v>
-      </c>
-      <c r="BQ4" t="inlineStr">
-        <is>
-          <t>5331-21_L3219563; 5714-21_L4114728; 1990-21_K8130344; 7424-21_L6296176; 6815-21_L5309745; 7024-21_L608B767; 126-22; 6377-21; 7179-21; 1622-21; 50-22; 6609-21; 1263-22_L9016385; 4157-22_M3136370; 1859-20_J7265546; 1061-21_K6256100; 846-22_L808C391; 667-22_L8015964; 7153-22_M7256464; 7399-22_M806A652; 5046-19_K3097222; 3887-22_M227C511; 2600-21_K9119359; 6773-22_M7044683; 6529-22_M6269608</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="BR4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>chr17</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>29652931</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>NF1</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>c.4929G&gt;A</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>p.Val1643=</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>NM_001042492</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>0.35975</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1380</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3836</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>COSV55986970</t>
-        </is>
-      </c>
-      <c r="P5" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>[["prostate", 4], ["meninges", 4]]</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>184149.0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>Benign</t>
-        </is>
-      </c>
-      <c r="T5" t="n">
-        <v>0.0149755</v>
-      </c>
-      <c r="V5" t="n">
-        <v>7.115</v>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>Tolerated</t>
-        </is>
-      </c>
-      <c r="Y5" t="n">
-        <v>782</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>598</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>1440</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>1016</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0.9225542455098076</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0.2466787029267808</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0.5665701881331404</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>8.241136159024341e-07</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>3563</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>779</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>526</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0.5968</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>1.4801</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>0.9985000000000001</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>779</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>526</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>0.5968</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>1.4801</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>0.9985000000000001</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>15.0577</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>0.512854</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>0.233</v>
-      </c>
-      <c r="BG5" t="inlineStr">
-        <is>
-          <t>snp</t>
-        </is>
-      </c>
-      <c r="BH5" t="n">
-        <v>14440.4</v>
-      </c>
-      <c r="BI5" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="BJ5" t="inlineStr">
-        <is>
-          <t>SYN</t>
-        </is>
-      </c>
-      <c r="BK5" t="inlineStr">
-        <is>
-          <t>ENST00000358273.9</t>
-        </is>
-      </c>
-      <c r="BL5" t="inlineStr">
-        <is>
-          <t>{"NF1": [["P21359", "p.Val1622=", "SYN", "ENST00000356175.7", "c.4866G&gt;A"], ["P21359", "p.Val1643=", "SYN", "ENST00000358273.9", "c.4929G&gt;A"]]}</t>
-        </is>
-      </c>
-      <c r="BN5" t="inlineStr">
-        <is>
-          <t>rs17880521</t>
-        </is>
-      </c>
-      <c r="BO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>chr17</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>29687460</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>NF1</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>c.8161-45A&gt;C</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>NM_001042492</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>0.383484</v>
-      </c>
-      <c r="J6" t="n">
-        <v>808</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2107</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>COSV104420395</t>
-        </is>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>[["meninges", 1]]</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>257307.0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>Likely benign</t>
-        </is>
-      </c>
-      <c r="T6" t="n">
-        <v>0.00173752</v>
-      </c>
-      <c r="V6" t="n">
-        <v>14.18</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>350</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>458</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>518</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>781</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>1.152215799614643</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0.1219061011171461</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0.4333333333333333</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0.0001667429494536</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>2079</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>344</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>443</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>0.4373</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0.777</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>0.9975000000000001</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>344</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>443</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>0.4373</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>0.777</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>0.9975000000000001</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>16.5583</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>0.521719</v>
-      </c>
-      <c r="BE6" t="n">
-        <v>0.118</v>
-      </c>
-      <c r="BG6" t="inlineStr">
-        <is>
-          <t>snp</t>
-        </is>
-      </c>
-      <c r="BH6" t="n">
-        <v>8722.07</v>
-      </c>
-      <c r="BJ6" t="inlineStr">
-        <is>
-          <t>INT</t>
-        </is>
-      </c>
-      <c r="BK6" t="inlineStr">
-        <is>
-          <t>ENST00000358273.9</t>
-        </is>
-      </c>
-      <c r="BL6" t="inlineStr">
-        <is>
-          <t>{"NF1": [["P21359", "", "INT", "ENST00000356175.7", "c.8098-45A&gt;C"], ["P21359", "", "INT", "ENST00000358273.9", "c.8161-45A&gt;C"]]}</t>
-        </is>
-      </c>
-      <c r="BN6" t="inlineStr">
-        <is>
-          <t>rs17879551</t>
-        </is>
-      </c>
-      <c r="BO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>chr20</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>31016119</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ASXL1</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>c.374-9C&gt;T</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>NM_015338</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>0.370011</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2670</v>
-      </c>
-      <c r="K7" t="n">
-        <v>7216</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>338077.0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>Benign/Likely benign</t>
-        </is>
-      </c>
-      <c r="T7" t="n">
-        <v>0.0145792</v>
-      </c>
-      <c r="V7" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>1337</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1333</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>2273</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>2273</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>1.002998500749625</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0.9611098387066797</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0.500748502994012</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0.953720799278679</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>7114</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>1319</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>1277</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>0.5081</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>0.4212</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>1.0329</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>0.9992</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>1319</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>1277</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>0.5081</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>0.4212</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>1.0329</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>0.9992</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>15.6722</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>0.500472</v>
-      </c>
-      <c r="BE7" t="n">
-        <v>0.944</v>
-      </c>
-      <c r="BG7" t="inlineStr">
-        <is>
-          <t>snp</t>
-        </is>
-      </c>
-      <c r="BH7" t="n">
-        <v>28272.6</v>
-      </c>
-      <c r="BJ7" t="inlineStr">
-        <is>
-          <t>INT</t>
-        </is>
-      </c>
-      <c r="BK7" t="inlineStr">
-        <is>
-          <t>ENST00000375687.10</t>
-        </is>
-      </c>
-      <c r="BL7" t="inlineStr">
-        <is>
-          <t>{"ASXL1": [["", "", "INT", "ENST00000306058.9", "c.359-9C&gt;T"], ["Q8IXJ9", "", "INT", "ENST00000375687.10", "c.374-9C&gt;T"], ["Q8IXJ9", "", "INT", "ENST00000613218.4", "c.374-9C&gt;T"], ["Q8IXJ9", "", "INT", "ENST00000620121.4", "c.374-9C&gt;T"], ["", "", "INT,NMD", "ENST00000644587.1", "c.*213-9C&gt;T"], ["", "", "INT", "ENST00000646985.1", "c.344-9C&gt;T"], ["", "", "INT", "ENST00000651418.1", "c.374-9C&gt;T"]]}</t>
-        </is>
-      </c>
-      <c r="BN7" t="inlineStr">
-        <is>
-          <t>rs6087903</t>
-        </is>
-      </c>
-      <c r="BO7" t="n">
-        <v>2</v>
-      </c>
-      <c r="BP7" t="n">
-        <v>0.0338983050847457</v>
-      </c>
-      <c r="BQ7" t="inlineStr">
-        <is>
-          <t>39-23_M9037298; 1025-23_N0142753</t>
-        </is>
-      </c>
-      <c r="BR7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>chrX</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>39930395</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>BCOR</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>c.3068dup</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>p.Ser1024LeufsTer55</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>NM_001123385</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>0.718094</v>
-      </c>
-      <c r="J8" t="n">
-        <v>889</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
-      <c r="Y8" t="n">
-        <v>528</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>361</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>220</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>129</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0.8596035099122522</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0.245584488457573</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0.5937149270482603</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>2.447388195127687e-08</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>1240</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>527</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>356</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>0.5966</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>1.479</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>0.9977</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>527</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>356</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>0.5966</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>1.479</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>0.9977</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>33.0775</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>0.510693</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="BG8" t="inlineStr">
-        <is>
-          <t>ins</t>
-        </is>
-      </c>
-      <c r="BH8" t="n">
-        <v>10237.5</v>
-      </c>
-      <c r="BI8" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="BJ8" t="inlineStr">
-        <is>
-          <t>FSI</t>
-        </is>
-      </c>
-      <c r="BK8" t="inlineStr">
-        <is>
-          <t>ENST00000378444.9</t>
-        </is>
-      </c>
-      <c r="BL8" t="inlineStr">
-        <is>
-          <t>{"BCOR": [["Q6W2J9", "p.Ser1024LeufsTer55", "FSI", "ENST00000342274.8", "c.3068dup"], ["Q6W2J9", "p.Ser1024LeufsTer55", "FSI", "ENST00000378444.9", "c.3068dup"], ["Q6W2J9", "p.Ser1006LeufsTer55", "FSI", "ENST00000378455.8", "c.3014dup"], ["Q6W2J9", "p.Ser1024LeufsTer55", "FSI", "ENST00000397354.7", "c.3068dup"], ["", "", "2KD", "ENST00000615339.1", "c.*1188dup"], ["", "p.Ser1024LeufsTer55", "FSI", "ENST00000673391.1", "c.3068dup"]]}</t>
-        </is>
-      </c>
-      <c r="BO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>chrX</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>133549131</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>TT</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>TCC</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>PHF6</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>c.816delinsCC</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>p.Lys273GlnfsTer21</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>NM_001015877</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>0.305601</v>
-      </c>
-      <c r="J9" t="n">
-        <v>562</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1839</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
-      <c r="Y9" t="n">
-        <v>298</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>264</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>656</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>621</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>1.068194480342322</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0.5432952030783981</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0.5301418439716312</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0.1646073615179546</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>11.7641</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>0.5115150000000001</v>
-      </c>
-      <c r="BE9" t="n">
-        <v>0.516</v>
-      </c>
-      <c r="BG9" t="inlineStr">
-        <is>
-          <t>complex</t>
-        </is>
-      </c>
-      <c r="BH9" t="n">
-        <v>5408.54</v>
-      </c>
-      <c r="BI9" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="BJ9" t="inlineStr">
-        <is>
-          <t>FSI</t>
-        </is>
-      </c>
-      <c r="BK9" t="inlineStr">
-        <is>
-          <t>ENST00000370803.7</t>
-        </is>
-      </c>
-      <c r="BL9" t="inlineStr">
-        <is>
-          <t>{"PHF6": [["Q8IWS0", "p.Lys273GlnfsTer21", "CSS,FSI", "ENST00000332070.7", "c.816delinsCC"], ["", "p.Lys274GlnfsTer21", "CSS,FSI", "ENST00000370799.5", "c.819delinsCC"], ["Q8IWS0", "p.Lys274GlnfsTer9", "CSS,FSI", "ENST00000370800.4", "c.819delinsCC"], ["Q8IWS0", "p.Lys273GlnfsTer21", "CSS,FSI", "ENST00000370803.7", "c.816delinsCC"], ["", "p.Lys274GlnfsTer21", "CSS,FSI", "ENST00000625464.2", "c.819delinsCC"]]}</t>
-        </is>
-      </c>
-      <c r="BO9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR9" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -2435,7 +1434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BR1"/>
+  <dimension ref="A1:BR3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2792,6 +1791,343 @@
       <c r="BR1" t="inlineStr">
         <is>
           <t>Disposition</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>chrX</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>39930395</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>GA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>BCOR</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>c.3068dup</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>p.Ser1024LeufsTer55</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>NM_001123385</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0.718094</v>
+      </c>
+      <c r="J2" t="n">
+        <v>889</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1238</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="Y2" t="n">
+        <v>528</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>361</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>220</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>129</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.8596035099122522</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.245584488457573</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.5937149270482603</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>2.447388195127687e-08</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1240</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>527</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>356</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.5966</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>1.479</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.9977</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>527</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>356</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.5966</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>1.479</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.9977</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>33.0775</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.510693</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="BG2" t="inlineStr">
+        <is>
+          <t>ins</t>
+        </is>
+      </c>
+      <c r="BH2" t="n">
+        <v>10237.5</v>
+      </c>
+      <c r="BI2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BJ2" t="inlineStr">
+        <is>
+          <t>FSI</t>
+        </is>
+      </c>
+      <c r="BK2" t="inlineStr">
+        <is>
+          <t>ENST00000378444.9</t>
+        </is>
+      </c>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>{"BCOR": [["Q6W2J9", "p.Ser1024LeufsTer55", "FSI", "ENST00000342274.8", "c.3068dup"], ["Q6W2J9", "p.Ser1024LeufsTer55", "FSI", "ENST00000378444.9", "c.3068dup"], ["Q6W2J9", "p.Ser1006LeufsTer55", "FSI", "ENST00000378455.8", "c.3014dup"], ["Q6W2J9", "p.Ser1024LeufsTer55", "FSI", "ENST00000397354.7", "c.3068dup"], ["", "", "2KD", "ENST00000615339.1", "c.*1188dup"], ["", "p.Ser1024LeufsTer55", "FSI", "ENST00000673391.1", "c.3068dup"]]}</t>
+        </is>
+      </c>
+      <c r="BO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>Harmful</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>chrX</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>133549131</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>TT</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>TCC</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>PHF6</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>c.816delinsCC</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>p.Lys273GlnfsTer21</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>NM_001015877</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0.305601</v>
+      </c>
+      <c r="J3" t="n">
+        <v>562</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1839</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="Y3" t="n">
+        <v>298</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>264</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>656</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>621</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1.068194480342322</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.5432952030783981</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.5301418439716312</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.1646073615179546</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>11.7641</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0.5115150000000001</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.516</v>
+      </c>
+      <c r="BG3" t="inlineStr">
+        <is>
+          <t>complex</t>
+        </is>
+      </c>
+      <c r="BH3" t="n">
+        <v>5408.54</v>
+      </c>
+      <c r="BI3" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BJ3" t="inlineStr">
+        <is>
+          <t>FSI</t>
+        </is>
+      </c>
+      <c r="BK3" t="inlineStr">
+        <is>
+          <t>ENST00000370803.7</t>
+        </is>
+      </c>
+      <c r="BL3" t="inlineStr">
+        <is>
+          <t>{"PHF6": [["Q8IWS0", "p.Lys273GlnfsTer21", "CSS,FSI", "ENST00000332070.7", "c.816delinsCC"], ["", "p.Lys274GlnfsTer21", "CSS,FSI", "ENST00000370799.5", "c.819delinsCC"], ["Q8IWS0", "p.Lys274GlnfsTer9", "CSS,FSI", "ENST00000370800.4", "c.819delinsCC"], ["Q8IWS0", "p.Lys273GlnfsTer21", "CSS,FSI", "ENST00000370803.7", "c.816delinsCC"], ["", "p.Lys274GlnfsTer21", "CSS,FSI", "ENST00000625464.2", "c.819delinsCC"]]}</t>
+        </is>
+      </c>
+      <c r="BO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>Harmful</t>
         </is>
       </c>
     </row>
@@ -2806,7 +2142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BR1"/>
+  <dimension ref="A1:BR2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3163,6 +2499,230 @@
       <c r="BR1" t="inlineStr">
         <is>
           <t>Disposition</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>chr17</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>29687460</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NF1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>c.8161-45A&gt;C</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>NM_001042492</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0.383484</v>
+      </c>
+      <c r="J2" t="n">
+        <v>808</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2107</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>COSV104420395</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>[["meninges", 1]]</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>257307.0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Likely benign</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>0.00173752</v>
+      </c>
+      <c r="V2" t="n">
+        <v>14.18</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>350</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>458</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>518</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>781</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1.152215799614643</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.1219061011171461</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.0001667429494536</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>2079</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>344</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>443</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.4373</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.777</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>344</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>443</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.4373</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.777</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>16.5583</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.521719</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="BG2" t="inlineStr">
+        <is>
+          <t>snp</t>
+        </is>
+      </c>
+      <c r="BH2" t="n">
+        <v>8722.07</v>
+      </c>
+      <c r="BJ2" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="BK2" t="inlineStr">
+        <is>
+          <t>ENST00000358273.9</t>
+        </is>
+      </c>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>{"NF1": [["P21359", "", "INT", "ENST00000356175.7", "c.8098-45A&gt;C"], ["P21359", "", "INT", "ENST00000358273.9", "c.8161-45A&gt;C"]]}</t>
+        </is>
+      </c>
+      <c r="BN2" t="inlineStr">
+        <is>
+          <t>rs17879551</t>
+        </is>
+      </c>
+      <c r="BO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>VUS</t>
         </is>
       </c>
     </row>
@@ -4163,7 +3723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BR1"/>
+  <dimension ref="A1:BR2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4520,6 +4080,230 @@
       <c r="BR1" t="inlineStr">
         <is>
           <t>Disposition</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>chr11</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>32417962</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>WT1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>c.1114-9T&gt;C</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0.358246</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1021</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2850</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>COSV60072524</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>[["prostate", 2]]</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>241475.0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Benign/Likely benign</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>0.00454964</v>
+      </c>
+      <c r="V2" t="n">
+        <v>10.86</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>468</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>553</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>810</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1019</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1.064737120905242</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.4323083702470536</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.458455522971652</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.008600289001127999</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>2737</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>797</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>995</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>797</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>995</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>462</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>477</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.492</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.6481</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>1.209</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.0191</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.3438</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>462</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>477</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.492</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.6481</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>1.209</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.0191</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.3438</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>14.9713</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.510039</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="BG2" t="inlineStr">
+        <is>
+          <t>snp</t>
+        </is>
+      </c>
+      <c r="BH2" t="n">
+        <v>10667.1</v>
+      </c>
+      <c r="BJ2" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="BK2" t="inlineStr">
+        <is>
+          <t>ENST00000452863.9</t>
+        </is>
+      </c>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>{"WT1": [["", "", "INT", "ENST00000332351.8", "c.1063-9T&gt;C"], ["", "", "INT,NMD", "ENST00000379077.8", "c.*298-9T&gt;C"], ["P19544", "", "INT", "ENST00000379079.8", "c.463-9T&gt;C"], ["", "", "INT", "ENST00000448076.8", "c.1114-9T&gt;C"], ["", "", "INT", "ENST00000452863.9", "c.1114-9T&gt;C"], ["", "", "INT,PTR", "ENST00000526685.2", ""], ["", "", "INT,PTR", "ENST00000527775.1", ""], ["P19544", "", "INT", "ENST00000530998.5", "c.412-9T&gt;C"], ["", "", "INT", "ENST00000640146.2", "c.439-9T&gt;C"], ["", "", "INT,PTR", "ENST00000651668.1", ""], ["", "", "INT,PTR", "ENST00000652579.1", ""], ["", "", "INT,PTR", "ENST00000652724.1", ""]]}</t>
+        </is>
+      </c>
+      <c r="BN2" t="inlineStr">
+        <is>
+          <t>rs5030274</t>
+        </is>
+      </c>
+      <c r="BO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.0169491525423728</v>
+      </c>
+      <c r="BQ2" t="inlineStr">
+        <is>
+          <t>6609-21</t>
+        </is>
+      </c>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>FLT3 ITDs</t>
         </is>
       </c>
     </row>
@@ -4534,7 +4318,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BR2"/>
+  <dimension ref="A1:BR3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4901,16 +4685,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31022441</v>
+        <v>31016119</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>AG</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -4920,12 +4704,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>c.1934dup</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>p.Gly646TrpfsTer12</t>
+          <t>c.374-9C&gt;T</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -4934,16 +4713,16 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.20493</v>
+        <v>0.370011</v>
       </c>
       <c r="J2" t="n">
-        <v>291</v>
+        <v>2670</v>
       </c>
       <c r="K2" t="n">
-        <v>1420</v>
+        <v>7216</v>
       </c>
       <c r="L2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -4955,58 +4734,48 @@
           <t>0/1</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>COSV100039898</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>[["haematopoietic and lymphoid tissue", 1]]</t>
-        </is>
-      </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>426927.0</t>
+          <t>338077.0</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>Pathogenic/Likely pathogenic</t>
+          <t>Benign/Likely benign</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>0.00067062</v>
+        <v>0.0145792</v>
+      </c>
+      <c r="V2" t="n">
+        <v>13.76</v>
       </c>
       <c r="Y2" t="n">
-        <v>291</v>
+        <v>1337</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>1333</v>
       </c>
       <c r="AA2" t="n">
-        <v>1129</v>
+        <v>2273</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>2273</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.2584070796460177</v>
+        <v>1.002998500749625</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>0.9611098387066797</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.9965870307167236</v>
+        <v>0.500748502994012</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.694780105721681e-86</v>
+        <v>0.953720799278679</v>
       </c>
       <c r="AG2" t="n">
-        <v>2990</v>
+        <v>7114</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
@@ -5027,99 +4796,330 @@
         <v>1</v>
       </c>
       <c r="AN2" t="n">
+        <v>1319</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1277</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.5081</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.4212</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>1.0329</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.9992</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>1319</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1277</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.5081</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.4212</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>1.0329</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.9992</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>15.6722</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.500472</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.944</v>
+      </c>
+      <c r="BG2" t="inlineStr">
+        <is>
+          <t>snp</t>
+        </is>
+      </c>
+      <c r="BH2" t="n">
+        <v>28272.6</v>
+      </c>
+      <c r="BJ2" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="BK2" t="inlineStr">
+        <is>
+          <t>ENST00000375687.10</t>
+        </is>
+      </c>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>{"ASXL1": [["", "", "INT", "ENST00000306058.9", "c.359-9C&gt;T"], ["Q8IXJ9", "", "INT", "ENST00000375687.10", "c.374-9C&gt;T"], ["Q8IXJ9", "", "INT", "ENST00000613218.4", "c.374-9C&gt;T"], ["Q8IXJ9", "", "INT", "ENST00000620121.4", "c.374-9C&gt;T"], ["", "", "INT,NMD", "ENST00000644587.1", "c.*213-9C&gt;T"], ["", "", "INT", "ENST00000646985.1", "c.344-9C&gt;T"], ["", "", "INT", "ENST00000651418.1", "c.374-9C&gt;T"]]}</t>
+        </is>
+      </c>
+      <c r="BN2" t="inlineStr">
+        <is>
+          <t>rs6087903</t>
+        </is>
+      </c>
+      <c r="BO2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.0338983050847457</v>
+      </c>
+      <c r="BQ2" t="inlineStr">
+        <is>
+          <t>39-23_M9037298; 1025-23_N0142753</t>
+        </is>
+      </c>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>Hotspot Exceptions</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>chr20</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>31022441</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>AG</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ASXL1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>c.1934dup</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>p.Gly646TrpfsTer12</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>NM_015338</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0.20493</v>
+      </c>
+      <c r="J3" t="n">
+        <v>291</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1420</v>
+      </c>
+      <c r="L3" t="n">
+        <v>8</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>COSV100039898</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>[["haematopoietic and lymphoid tissue", 1]]</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>426927.0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Pathogenic/Likely pathogenic</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>0.00067062</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>291</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1129</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.2584070796460177</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.9965870307167236</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>3.694780105721681e-86</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2990</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN3" t="n">
         <v>250</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO3" t="n">
         <v>0</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP3" t="n">
         <v>0.996</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ3" t="n">
         <v>0</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR3" t="n">
         <v>251</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS3" t="n">
         <v>0.007900000000000001</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT3" t="n">
         <v>0.9921</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU3" t="n">
         <v>250</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV3" t="n">
         <v>185</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW3" t="n">
         <v>0.5744</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AX3" t="n">
         <v>0.0022</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AY3" t="n">
         <v>1.3495</v>
       </c>
-      <c r="AZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA2" t="n">
+      <c r="AZ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA3" t="n">
         <v>0.9954</v>
       </c>
-      <c r="BB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC2" t="n">
+      <c r="BB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC3" t="n">
         <v>2.48308</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BD3" t="n">
         <v>0.5</v>
       </c>
-      <c r="BE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG2" t="inlineStr">
+      <c r="BE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG3" t="inlineStr">
         <is>
           <t>ins</t>
         </is>
       </c>
-      <c r="BH2" t="n">
+      <c r="BH3" t="n">
         <v>881.492</v>
       </c>
-      <c r="BI2" t="inlineStr">
+      <c r="BI3" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="BJ2" t="inlineStr">
+      <c r="BJ3" t="inlineStr">
         <is>
           <t>FSI</t>
         </is>
       </c>
-      <c r="BK2" t="inlineStr">
+      <c r="BK3" t="inlineStr">
         <is>
           <t>ENST00000375687.10</t>
         </is>
       </c>
-      <c r="BL2" t="inlineStr">
+      <c r="BL3" t="inlineStr">
         <is>
           <t>{"ASXL1": [["", "p.Gly641TrpfsTer12", "FSI", "ENST00000306058.9", "c.1919dup"], ["Q8IXJ9", "p.Gly646TrpfsTer12", "FSI", "ENST00000375687.10", "c.1934dup"], ["", "", "2KD,PTR", "ENST00000553345.5", ""], ["Q8IXJ9", "p.Gly646TrpfsTer12", "FSI", "ENST00000613218.4", "c.1934dup"], ["Q8IXJ9", "p.Gly646TrpfsTer12", "FSI", "ENST00000620121.4", "c.1934dup"], ["", "p.Gly585TrpfsTer12", "FSI", "ENST00000646985.1", "c.1751dup"], ["", "", "INT", "ENST00000651418.1", "c.1869+65dup"]]}</t>
         </is>
       </c>
-      <c r="BO2" t="n">
+      <c r="BO3" t="n">
         <v>38</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="BP3" t="n">
         <v>0.6440677966101694</v>
       </c>
-      <c r="BQ2" t="inlineStr">
+      <c r="BQ3" t="inlineStr">
         <is>
           <t>5331-21_L3219563; 5714-21_L4114728; 7424-21_L6296176; 6815-21_L5309745; 7024-21_L608B767; 126-22; 6377-21; 7179-21; 1622-21; 50-22; 6609-21; 1263-22_L9016385; 4157-22_M3136370; 1859-20_J7265546; 1061-21_K6256100; 846-22_L808C391; 667-22_L8015964; 7153-22_M7256464; 7399-22_M806A652; 5046-19_K3097222; 3887-22_M227C511; 2600-21_K9119359; 6773-22_M7044683; 6529-22_M6269608; 6585-21_L517A790</t>
         </is>
       </c>
-      <c r="BR2" t="inlineStr">
+      <c r="BR3" t="inlineStr">
         <is>
           <t>Hotspot Exceptions</t>
         </is>

--- a/test_data/481-20_J3316158.final.report(sorted).xlsx
+++ b/test_data/481-20_J3316158.final.report(sorted).xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="None" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Harmful" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="VUS" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Low VAF Variants" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="FLT3 ITDs" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Hotspot Exceptions" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="None" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Harmful" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VUS" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Low VAF Variants" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FLT3 ITDs" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hotspot Exceptions" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BR4"/>
+  <dimension ref="A1:BR9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1021,46 +1021,36 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>119149355</v>
+        <v>32417962</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TATGATGATGATGATGATGA</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>TATGATGATGATGATGA</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CBL</t>
+          <t>WT1</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>c.1380_1382del</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>p.Asp460del</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>NM_005188</t>
+          <t>c.1114-9T&gt;C</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0.0242161</v>
+        <v>0.358246</v>
       </c>
       <c r="J3" t="n">
-        <v>78</v>
+        <v>1021</v>
       </c>
       <c r="K3" t="n">
-        <v>3221</v>
+        <v>2850</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -1072,110 +1062,174 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>0/1</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>COSV50629628</t>
+          <t>COSV60072524</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[["NS", 4], ["bone", 2], ["upper aerodigestive tract", 1], ["skin", 1], ["stomach", 1], ["lung", 1], ["haematopoietic and lymphoid tissue", 1]]</t>
+          <t>[["prostate", 2]]</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>570415.0</t>
+          <t>241475.0</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>Uncertain significance</t>
-        </is>
+          <t>Benign/Likely benign</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>0.00454964</v>
+      </c>
+      <c r="V3" t="n">
+        <v>10.86</v>
       </c>
       <c r="Y3" t="n">
-        <v>28</v>
+        <v>468</v>
       </c>
       <c r="Z3" t="n">
-        <v>50</v>
+        <v>553</v>
       </c>
       <c r="AA3" t="n">
-        <v>1413</v>
+        <v>810</v>
       </c>
       <c r="AB3" t="n">
-        <v>1730</v>
+        <v>1019</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.6961061652383725</v>
+        <v>1.064737120905242</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.1336480166342834</v>
+        <v>0.4323083702470536</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.3625</v>
+        <v>0.458455522971652</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.0183160975169163</v>
+        <v>0.008600289001127999</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2737</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>797</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>995</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>797</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>995</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>462</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>477</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.492</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.6481</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>1.209</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.0191</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.3438</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>462</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>477</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.492</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.6481</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>1.209</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.0191</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0.3438</v>
       </c>
       <c r="BB3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC3" t="n">
-        <v>1.0862</v>
+        <v>14.9713</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.591083</v>
+        <v>0.510039</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.122</v>
+        <v>0.412</v>
       </c>
       <c r="BG3" t="inlineStr">
         <is>
-          <t>del</t>
+          <t>snp</t>
         </is>
       </c>
       <c r="BH3" t="n">
-        <v>874.663</v>
-      </c>
-      <c r="BI3" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
+        <v>10667.1</v>
       </c>
       <c r="BJ3" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>INT</t>
         </is>
       </c>
       <c r="BK3" t="inlineStr">
         <is>
-          <t>ENST00000264033.6</t>
+          <t>ENST00000452863.9</t>
         </is>
       </c>
       <c r="BL3" t="inlineStr">
         <is>
-          <t>{"CBL": [["P22681", "p.Asp460del", "IND", "ENST00000264033.6", "c.1380_1382del"], ["", "p.Asp460del", "IND", "ENST00000634586.1", "c.1380_1382del"], ["", "p.Asp460del", "IND", "ENST00000634840.1", "c.1380_1382del"]]}</t>
+          <t>{"WT1": [["", "", "INT", "ENST00000332351.8", "c.1063-9T&gt;C"], ["", "", "INT,NMD", "ENST00000379077.8", "c.*298-9T&gt;C"], ["P19544", "", "INT", "ENST00000379079.8", "c.463-9T&gt;C"], ["", "", "INT", "ENST00000448076.8", "c.1114-9T&gt;C"], ["", "", "INT", "ENST00000452863.9", "c.1114-9T&gt;C"], ["", "", "INT,PTR", "ENST00000526685.2", ""], ["", "", "INT,PTR", "ENST00000527775.1", ""], ["P19544", "", "INT", "ENST00000530998.5", "c.412-9T&gt;C"], ["", "", "INT", "ENST00000640146.2", "c.439-9T&gt;C"], ["", "", "INT,PTR", "ENST00000651668.1", ""], ["", "", "INT,PTR", "ENST00000652579.1", ""], ["", "", "INT,PTR", "ENST00000652724.1", ""]]}</t>
         </is>
       </c>
       <c r="BN3" t="inlineStr">
         <is>
-          <t>rs397507494</t>
+          <t>rs5030274</t>
         </is>
       </c>
       <c r="BO3" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.7627118644067796</v>
+        <v>0.0169491525423728</v>
       </c>
       <c r="BQ3" t="inlineStr">
         <is>
-          <t>5331-21_L3219563; 5714-21_L4114728; 1990-21_K8130344; 7424-21_L6296176; 6815-21_L5309745; 7024-21_L608B767; 126-22; 6377-21; 7179-21; 1622-21; 50-22; 6609-21; 1263-22_L9016385; 4157-22_M3136370; 1859-20_J7265546; 1061-21_K6256100; 846-22_L808C391; 667-22_L8015964; 7153-22_M7256464; 7399-22_M806A652; 5046-19_K3097222; 3887-22_M227C511; 2600-21_K9119359; 6773-22_M7044683; 6529-22_M6269608</t>
+          <t>6609-21</t>
         </is>
       </c>
       <c r="BR3" t="inlineStr">
@@ -1187,237 +1241,1184 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>chr11</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>119149355</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>TATGATGATGATGATGATGA</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>TATGATGATGATGATGA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CBL</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>c.1380_1382del</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>p.Asp460del</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>NM_005188</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0242161</v>
+      </c>
+      <c r="J4" t="n">
+        <v>78</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3221</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>COSV50629628</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>[["NS", 4], ["bone", 2], ["upper aerodigestive tract", 1], ["skin", 1], ["stomach", 1], ["lung", 1], ["haematopoietic and lymphoid tissue", 1]]</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>570415.0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Uncertain significance</t>
+        </is>
+      </c>
+      <c r="Y4" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1413</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1730</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.6961061652383725</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.1336480166342834</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.3625</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.0183160975169163</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>1.0862</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0.591083</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="BG4" t="inlineStr">
+        <is>
+          <t>del</t>
+        </is>
+      </c>
+      <c r="BH4" t="n">
+        <v>874.663</v>
+      </c>
+      <c r="BI4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BJ4" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="BK4" t="inlineStr">
+        <is>
+          <t>ENST00000264033.6</t>
+        </is>
+      </c>
+      <c r="BL4" t="inlineStr">
+        <is>
+          <t>{"CBL": [["P22681", "p.Asp460del", "IND", "ENST00000264033.6", "c.1380_1382del"], ["", "p.Asp460del", "IND", "ENST00000634586.1", "c.1380_1382del"], ["", "p.Asp460del", "IND", "ENST00000634840.1", "c.1380_1382del"]]}</t>
+        </is>
+      </c>
+      <c r="BN4" t="inlineStr">
+        <is>
+          <t>rs397507494</t>
+        </is>
+      </c>
+      <c r="BO4" t="n">
+        <v>45</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>0.7627118644067796</v>
+      </c>
+      <c r="BQ4" t="inlineStr">
+        <is>
+          <t>5331-21_L3219563; 5714-21_L4114728; 1990-21_K8130344; 7424-21_L6296176; 6815-21_L5309745; 7024-21_L608B767; 126-22; 6377-21; 7179-21; 1622-21; 50-22; 6609-21; 1263-22_L9016385; 4157-22_M3136370; 1859-20_J7265546; 1061-21_K6256100; 846-22_L808C391; 667-22_L8015964; 7153-22_M7256464; 7399-22_M806A652; 5046-19_K3097222; 3887-22_M227C511; 2600-21_K9119359; 6773-22_M7044683; 6529-22_M6269608</t>
+        </is>
+      </c>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>chr17</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B5" t="n">
         <v>29652931</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>NF1</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>c.4929G&gt;A</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>p.Val1643=</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>NM_001042492</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="I5" t="n">
         <v>0.35975</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J5" t="n">
         <v>1380</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K5" t="n">
         <v>3836</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L5" t="n">
         <v>2</v>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>0/1</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>COSV55986970</t>
         </is>
       </c>
-      <c r="P4" t="n">
+      <c r="P5" t="n">
         <v>8</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>[["prostate", 4], ["meninges", 4]]</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>184149.0</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>Benign</t>
         </is>
       </c>
-      <c r="T4" t="n">
+      <c r="T5" t="n">
         <v>0.0149755</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V5" t="n">
         <v>7.115</v>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>Tolerated</t>
         </is>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y5" t="n">
         <v>782</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z5" t="n">
         <v>598</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA5" t="n">
         <v>1440</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB5" t="n">
         <v>1016</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC5" t="n">
         <v>0.9225542455098076</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD5" t="n">
         <v>0.2466787029267808</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE5" t="n">
         <v>0.5665701881331404</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF5" t="n">
         <v>8.241136159024341e-07</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG5" t="n">
         <v>3563</v>
       </c>
-      <c r="AH4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI4" t="n">
+      <c r="AH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="n">
         <v>0</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN4" t="n">
+      <c r="AJ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN5" t="n">
         <v>779</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO5" t="n">
         <v>526</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP5" t="n">
         <v>0.5968</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ5" t="n">
         <v>0</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR5" t="n">
         <v>1.4801</v>
       </c>
-      <c r="AS4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT4" t="n">
+      <c r="AS5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT5" t="n">
         <v>0.9985000000000001</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU5" t="n">
         <v>779</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV5" t="n">
         <v>526</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AW5" t="n">
         <v>0.5968</v>
       </c>
-      <c r="AX4" t="n">
+      <c r="AX5" t="n">
         <v>0</v>
       </c>
-      <c r="AY4" t="n">
+      <c r="AY5" t="n">
         <v>1.4801</v>
       </c>
-      <c r="AZ4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA4" t="n">
+      <c r="AZ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA5" t="n">
         <v>0.9985000000000001</v>
       </c>
-      <c r="BB4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC4" t="n">
+      <c r="BB5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC5" t="n">
         <v>15.0577</v>
       </c>
-      <c r="BD4" t="n">
+      <c r="BD5" t="n">
         <v>0.512854</v>
       </c>
-      <c r="BE4" t="n">
+      <c r="BE5" t="n">
         <v>0.233</v>
       </c>
-      <c r="BG4" t="inlineStr">
+      <c r="BG5" t="inlineStr">
         <is>
           <t>snp</t>
         </is>
       </c>
-      <c r="BH4" t="n">
+      <c r="BH5" t="n">
         <v>14440.4</v>
       </c>
-      <c r="BI4" t="inlineStr">
+      <c r="BI5" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="BJ4" t="inlineStr">
+      <c r="BJ5" t="inlineStr">
         <is>
           <t>SYN</t>
         </is>
       </c>
-      <c r="BK4" t="inlineStr">
+      <c r="BK5" t="inlineStr">
         <is>
           <t>ENST00000358273.9</t>
         </is>
       </c>
-      <c r="BL4" t="inlineStr">
+      <c r="BL5" t="inlineStr">
         <is>
           <t>{"NF1": [["P21359", "p.Val1622=", "SYN", "ENST00000356175.7", "c.4866G&gt;A"], ["P21359", "p.Val1643=", "SYN", "ENST00000358273.9", "c.4929G&gt;A"]]}</t>
         </is>
       </c>
-      <c r="BN4" t="inlineStr">
+      <c r="BN5" t="inlineStr">
         <is>
           <t>rs17880521</t>
         </is>
       </c>
-      <c r="BO4" t="n">
+      <c r="BO5" t="n">
         <v>0</v>
       </c>
-      <c r="BP4" t="n">
+      <c r="BP5" t="n">
         <v>0</v>
       </c>
-      <c r="BR4" t="inlineStr">
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>chr17</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>29687460</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NF1</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>c.8161-45A&gt;C</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>NM_001042492</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0.383484</v>
+      </c>
+      <c r="J6" t="n">
+        <v>808</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2107</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>COSV104420395</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>[["meninges", 1]]</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>257307.0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Likely benign</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>0.00173752</v>
+      </c>
+      <c r="V6" t="n">
+        <v>14.18</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>350</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>458</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>518</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>781</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1.152215799614643</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.1219061011171461</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.0001667429494536</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>2079</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>344</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>443</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.4373</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.777</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>344</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>443</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0.4373</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0.777</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>16.5583</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0.521719</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="BG6" t="inlineStr">
+        <is>
+          <t>snp</t>
+        </is>
+      </c>
+      <c r="BH6" t="n">
+        <v>8722.07</v>
+      </c>
+      <c r="BJ6" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="BK6" t="inlineStr">
+        <is>
+          <t>ENST00000358273.9</t>
+        </is>
+      </c>
+      <c r="BL6" t="inlineStr">
+        <is>
+          <t>{"NF1": [["P21359", "", "INT", "ENST00000356175.7", "c.8098-45A&gt;C"], ["P21359", "", "INT", "ENST00000358273.9", "c.8161-45A&gt;C"]]}</t>
+        </is>
+      </c>
+      <c r="BN6" t="inlineStr">
+        <is>
+          <t>rs17879551</t>
+        </is>
+      </c>
+      <c r="BO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>chr20</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>31016119</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ASXL1</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>c.374-9C&gt;T</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>NM_015338</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0.370011</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2670</v>
+      </c>
+      <c r="K7" t="n">
+        <v>7216</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>338077.0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Benign/Likely benign</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>0.0145792</v>
+      </c>
+      <c r="V7" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1337</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1333</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>2273</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>2273</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1.002998500749625</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.9611098387066797</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.500748502994012</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.953720799278679</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>7114</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>1319</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>1277</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.5081</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.4212</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>1.0329</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.9992</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>1319</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>1277</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0.5081</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0.4212</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>1.0329</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0.9992</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>15.6722</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0.500472</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0.944</v>
+      </c>
+      <c r="BG7" t="inlineStr">
+        <is>
+          <t>snp</t>
+        </is>
+      </c>
+      <c r="BH7" t="n">
+        <v>28272.6</v>
+      </c>
+      <c r="BJ7" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="BK7" t="inlineStr">
+        <is>
+          <t>ENST00000375687.10</t>
+        </is>
+      </c>
+      <c r="BL7" t="inlineStr">
+        <is>
+          <t>{"ASXL1": [["", "", "INT", "ENST00000306058.9", "c.359-9C&gt;T"], ["Q8IXJ9", "", "INT", "ENST00000375687.10", "c.374-9C&gt;T"], ["Q8IXJ9", "", "INT", "ENST00000613218.4", "c.374-9C&gt;T"], ["Q8IXJ9", "", "INT", "ENST00000620121.4", "c.374-9C&gt;T"], ["", "", "INT,NMD", "ENST00000644587.1", "c.*213-9C&gt;T"], ["", "", "INT", "ENST00000646985.1", "c.344-9C&gt;T"], ["", "", "INT", "ENST00000651418.1", "c.374-9C&gt;T"]]}</t>
+        </is>
+      </c>
+      <c r="BN7" t="inlineStr">
+        <is>
+          <t>rs6087903</t>
+        </is>
+      </c>
+      <c r="BO7" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>0.0338983050847457</v>
+      </c>
+      <c r="BQ7" t="inlineStr">
+        <is>
+          <t>39-23_M9037298; 1025-23_N0142753</t>
+        </is>
+      </c>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>chrX</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>39930395</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>GA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>BCOR</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>c.3068dup</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>p.Ser1024LeufsTer55</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>NM_001123385</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0.718094</v>
+      </c>
+      <c r="J8" t="n">
+        <v>889</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1238</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="Y8" t="n">
+        <v>528</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>361</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>220</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>129</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.8596035099122522</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.245584488457573</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.5937149270482603</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>2.447388195127687e-08</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>1240</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>527</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>356</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.5966</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>1.479</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0.9977</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>527</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>356</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0.5966</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>1.479</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0.9977</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>33.0775</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0.510693</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="BG8" t="inlineStr">
+        <is>
+          <t>ins</t>
+        </is>
+      </c>
+      <c r="BH8" t="n">
+        <v>10237.5</v>
+      </c>
+      <c r="BI8" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BJ8" t="inlineStr">
+        <is>
+          <t>FSI</t>
+        </is>
+      </c>
+      <c r="BK8" t="inlineStr">
+        <is>
+          <t>ENST00000378444.9</t>
+        </is>
+      </c>
+      <c r="BL8" t="inlineStr">
+        <is>
+          <t>{"BCOR": [["Q6W2J9", "p.Ser1024LeufsTer55", "FSI", "ENST00000342274.8", "c.3068dup"], ["Q6W2J9", "p.Ser1024LeufsTer55", "FSI", "ENST00000378444.9", "c.3068dup"], ["Q6W2J9", "p.Ser1006LeufsTer55", "FSI", "ENST00000378455.8", "c.3014dup"], ["Q6W2J9", "p.Ser1024LeufsTer55", "FSI", "ENST00000397354.7", "c.3068dup"], ["", "", "2KD", "ENST00000615339.1", "c.*1188dup"], ["", "p.Ser1024LeufsTer55", "FSI", "ENST00000673391.1", "c.3068dup"]]}</t>
+        </is>
+      </c>
+      <c r="BO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>chrX</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>133549131</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>TT</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>TCC</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>PHF6</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>c.816delinsCC</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>p.Lys273GlnfsTer21</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>NM_001015877</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0.305601</v>
+      </c>
+      <c r="J9" t="n">
+        <v>562</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1839</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="Y9" t="n">
+        <v>298</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>264</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>656</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>621</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1.068194480342322</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.5432952030783981</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.5301418439716312</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.1646073615179546</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>11.7641</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0.5115150000000001</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0.516</v>
+      </c>
+      <c r="BG9" t="inlineStr">
+        <is>
+          <t>complex</t>
+        </is>
+      </c>
+      <c r="BH9" t="n">
+        <v>5408.54</v>
+      </c>
+      <c r="BI9" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="BJ9" t="inlineStr">
+        <is>
+          <t>FSI</t>
+        </is>
+      </c>
+      <c r="BK9" t="inlineStr">
+        <is>
+          <t>ENST00000370803.7</t>
+        </is>
+      </c>
+      <c r="BL9" t="inlineStr">
+        <is>
+          <t>{"PHF6": [["Q8IWS0", "p.Lys273GlnfsTer21", "CSS,FSI", "ENST00000332070.7", "c.816delinsCC"], ["", "p.Lys274GlnfsTer21", "CSS,FSI", "ENST00000370799.5", "c.819delinsCC"], ["Q8IWS0", "p.Lys274GlnfsTer9", "CSS,FSI", "ENST00000370800.4", "c.819delinsCC"], ["Q8IWS0", "p.Lys273GlnfsTer21", "CSS,FSI", "ENST00000370803.7", "c.816delinsCC"], ["", "p.Lys274GlnfsTer21", "CSS,FSI", "ENST00000625464.2", "c.819delinsCC"]]}</t>
+        </is>
+      </c>
+      <c r="BO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR9" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -1434,7 +2435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BR3"/>
+  <dimension ref="A1:BR1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1791,343 +2792,6 @@
       <c r="BR1" t="inlineStr">
         <is>
           <t>Disposition</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>chrX</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>39930395</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>BCOR</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>c.3068dup</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>p.Ser1024LeufsTer55</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>NM_001123385</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>0.718094</v>
-      </c>
-      <c r="J2" t="n">
-        <v>889</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1238</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
-      <c r="Y2" t="n">
-        <v>528</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>361</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>220</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>129</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.8596035099122522</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.245584488457573</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.5937149270482603</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>2.447388195127687e-08</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1240</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>527</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>356</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0.5966</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>1.479</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>0.9977</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>527</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>356</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>0.5966</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>1.479</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>0.9977</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>33.0775</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>0.510693</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="BG2" t="inlineStr">
-        <is>
-          <t>ins</t>
-        </is>
-      </c>
-      <c r="BH2" t="n">
-        <v>10237.5</v>
-      </c>
-      <c r="BI2" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="BJ2" t="inlineStr">
-        <is>
-          <t>FSI</t>
-        </is>
-      </c>
-      <c r="BK2" t="inlineStr">
-        <is>
-          <t>ENST00000378444.9</t>
-        </is>
-      </c>
-      <c r="BL2" t="inlineStr">
-        <is>
-          <t>{"BCOR": [["Q6W2J9", "p.Ser1024LeufsTer55", "FSI", "ENST00000342274.8", "c.3068dup"], ["Q6W2J9", "p.Ser1024LeufsTer55", "FSI", "ENST00000378444.9", "c.3068dup"], ["Q6W2J9", "p.Ser1006LeufsTer55", "FSI", "ENST00000378455.8", "c.3014dup"], ["Q6W2J9", "p.Ser1024LeufsTer55", "FSI", "ENST00000397354.7", "c.3068dup"], ["", "", "2KD", "ENST00000615339.1", "c.*1188dup"], ["", "p.Ser1024LeufsTer55", "FSI", "ENST00000673391.1", "c.3068dup"]]}</t>
-        </is>
-      </c>
-      <c r="BO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR2" t="inlineStr">
-        <is>
-          <t>Harmful</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>chrX</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>133549131</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>TT</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>TCC</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>PHF6</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>c.816delinsCC</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>p.Lys273GlnfsTer21</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>NM_001015877</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>0.305601</v>
-      </c>
-      <c r="J3" t="n">
-        <v>562</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1839</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
-      <c r="Y3" t="n">
-        <v>298</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>264</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>656</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>621</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1.068194480342322</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0.5432952030783981</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0.5301418439716312</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.1646073615179546</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>11.7641</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>0.5115150000000001</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>0.516</v>
-      </c>
-      <c r="BG3" t="inlineStr">
-        <is>
-          <t>complex</t>
-        </is>
-      </c>
-      <c r="BH3" t="n">
-        <v>5408.54</v>
-      </c>
-      <c r="BI3" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="BJ3" t="inlineStr">
-        <is>
-          <t>FSI</t>
-        </is>
-      </c>
-      <c r="BK3" t="inlineStr">
-        <is>
-          <t>ENST00000370803.7</t>
-        </is>
-      </c>
-      <c r="BL3" t="inlineStr">
-        <is>
-          <t>{"PHF6": [["Q8IWS0", "p.Lys273GlnfsTer21", "CSS,FSI", "ENST00000332070.7", "c.816delinsCC"], ["", "p.Lys274GlnfsTer21", "CSS,FSI", "ENST00000370799.5", "c.819delinsCC"], ["Q8IWS0", "p.Lys274GlnfsTer9", "CSS,FSI", "ENST00000370800.4", "c.819delinsCC"], ["Q8IWS0", "p.Lys273GlnfsTer21", "CSS,FSI", "ENST00000370803.7", "c.816delinsCC"], ["", "p.Lys274GlnfsTer21", "CSS,FSI", "ENST00000625464.2", "c.819delinsCC"]]}</t>
-        </is>
-      </c>
-      <c r="BO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR3" t="inlineStr">
-        <is>
-          <t>Harmful</t>
         </is>
       </c>
     </row>
@@ -2142,7 +2806,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BR2"/>
+  <dimension ref="A1:BR1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2499,230 +3163,6 @@
       <c r="BR1" t="inlineStr">
         <is>
           <t>Disposition</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>chr17</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>29687460</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>NF1</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>c.8161-45A&gt;C</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>NM_001042492</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>0.383484</v>
-      </c>
-      <c r="J2" t="n">
-        <v>808</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2107</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>COSV104420395</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>[["meninges", 1]]</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>257307.0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Likely benign</t>
-        </is>
-      </c>
-      <c r="T2" t="n">
-        <v>0.00173752</v>
-      </c>
-      <c r="V2" t="n">
-        <v>14.18</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>350</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>458</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>518</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>781</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1.152215799614643</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.1219061011171461</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.4333333333333333</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.0001667429494536</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>2079</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>344</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>443</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0.4373</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>0.777</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>0.9975000000000001</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>344</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>443</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>0.4373</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>0.777</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>0.9975000000000001</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>16.5583</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>0.521719</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>0.118</v>
-      </c>
-      <c r="BG2" t="inlineStr">
-        <is>
-          <t>snp</t>
-        </is>
-      </c>
-      <c r="BH2" t="n">
-        <v>8722.07</v>
-      </c>
-      <c r="BJ2" t="inlineStr">
-        <is>
-          <t>INT</t>
-        </is>
-      </c>
-      <c r="BK2" t="inlineStr">
-        <is>
-          <t>ENST00000358273.9</t>
-        </is>
-      </c>
-      <c r="BL2" t="inlineStr">
-        <is>
-          <t>{"NF1": [["P21359", "", "INT", "ENST00000356175.7", "c.8098-45A&gt;C"], ["P21359", "", "INT", "ENST00000358273.9", "c.8161-45A&gt;C"]]}</t>
-        </is>
-      </c>
-      <c r="BN2" t="inlineStr">
-        <is>
-          <t>rs17879551</t>
-        </is>
-      </c>
-      <c r="BO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR2" t="inlineStr">
-        <is>
-          <t>VUS</t>
         </is>
       </c>
     </row>
@@ -3723,7 +4163,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BR2"/>
+  <dimension ref="A1:BR1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4080,230 +4520,6 @@
       <c r="BR1" t="inlineStr">
         <is>
           <t>Disposition</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>chr11</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>32417962</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>WT1</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>c.1114-9T&gt;C</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>0.358246</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1021</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2850</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>COSV60072524</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>[["prostate", 2]]</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>241475.0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Benign/Likely benign</t>
-        </is>
-      </c>
-      <c r="T2" t="n">
-        <v>0.00454964</v>
-      </c>
-      <c r="V2" t="n">
-        <v>10.86</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>468</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>553</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>810</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1019</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1.064737120905242</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.4323083702470536</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.458455522971652</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.008600289001127999</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>2737</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>797</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>995</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>797</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>995</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>462</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>477</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0.492</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0.6481</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>1.209</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>0.0191</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>0.3438</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>462</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>477</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>0.492</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>0.6481</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>1.209</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>0.0191</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>0.3438</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>14.9713</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>0.510039</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="BG2" t="inlineStr">
-        <is>
-          <t>snp</t>
-        </is>
-      </c>
-      <c r="BH2" t="n">
-        <v>10667.1</v>
-      </c>
-      <c r="BJ2" t="inlineStr">
-        <is>
-          <t>INT</t>
-        </is>
-      </c>
-      <c r="BK2" t="inlineStr">
-        <is>
-          <t>ENST00000452863.9</t>
-        </is>
-      </c>
-      <c r="BL2" t="inlineStr">
-        <is>
-          <t>{"WT1": [["", "", "INT", "ENST00000332351.8", "c.1063-9T&gt;C"], ["", "", "INT,NMD", "ENST00000379077.8", "c.*298-9T&gt;C"], ["P19544", "", "INT", "ENST00000379079.8", "c.463-9T&gt;C"], ["", "", "INT", "ENST00000448076.8", "c.1114-9T&gt;C"], ["", "", "INT", "ENST00000452863.9", "c.1114-9T&gt;C"], ["", "", "INT,PTR", "ENST00000526685.2", ""], ["", "", "INT,PTR", "ENST00000527775.1", ""], ["P19544", "", "INT", "ENST00000530998.5", "c.412-9T&gt;C"], ["", "", "INT", "ENST00000640146.2", "c.439-9T&gt;C"], ["", "", "INT,PTR", "ENST00000651668.1", ""], ["", "", "INT,PTR", "ENST00000652579.1", ""], ["", "", "INT,PTR", "ENST00000652724.1", ""]]}</t>
-        </is>
-      </c>
-      <c r="BN2" t="inlineStr">
-        <is>
-          <t>rs5030274</t>
-        </is>
-      </c>
-      <c r="BO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>0.0169491525423728</v>
-      </c>
-      <c r="BQ2" t="inlineStr">
-        <is>
-          <t>6609-21</t>
-        </is>
-      </c>
-      <c r="BR2" t="inlineStr">
-        <is>
-          <t>FLT3 ITDs</t>
         </is>
       </c>
     </row>
@@ -4318,7 +4534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BR3"/>
+  <dimension ref="A1:BR2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4685,16 +4901,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31016119</v>
+        <v>31022441</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>AG</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -4704,7 +4920,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>c.374-9C&gt;T</t>
+          <t>c.1934dup</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>p.Gly646TrpfsTer12</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -4713,16 +4934,16 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.370011</v>
+        <v>0.20493</v>
       </c>
       <c r="J2" t="n">
-        <v>2670</v>
+        <v>291</v>
       </c>
       <c r="K2" t="n">
-        <v>7216</v>
+        <v>1420</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -4734,48 +4955,58 @@
           <t>0/1</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>COSV100039898</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>[["haematopoietic and lymphoid tissue", 1]]</t>
+        </is>
+      </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>338077.0</t>
+          <t>426927.0</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>Benign/Likely benign</t>
+          <t>Pathogenic/Likely pathogenic</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>0.0145792</v>
-      </c>
-      <c r="V2" t="n">
-        <v>13.76</v>
+        <v>0.00067062</v>
       </c>
       <c r="Y2" t="n">
-        <v>1337</v>
+        <v>291</v>
       </c>
       <c r="Z2" t="n">
-        <v>1333</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>2273</v>
+        <v>1129</v>
       </c>
       <c r="AB2" t="n">
-        <v>2273</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.002998500749625</v>
+        <v>0.2584070796460177</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.9611098387066797</v>
+        <v>1</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.500748502994012</v>
+        <v>0.9965870307167236</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.953720799278679</v>
+        <v>3.694780105721681e-86</v>
       </c>
       <c r="AG2" t="n">
-        <v>7114</v>
+        <v>2990</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
@@ -4796,70 +5027,75 @@
         <v>1</v>
       </c>
       <c r="AN2" t="n">
-        <v>1319</v>
+        <v>250</v>
       </c>
       <c r="AO2" t="n">
-        <v>1277</v>
+        <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.5081</v>
+        <v>0.996</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.4212</v>
+        <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>1.0329</v>
+        <v>251</v>
       </c>
       <c r="AS2" t="n">
-        <v>1</v>
+        <v>0.007900000000000001</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.9992</v>
+        <v>0.9921</v>
       </c>
       <c r="AU2" t="n">
-        <v>1319</v>
+        <v>250</v>
       </c>
       <c r="AV2" t="n">
-        <v>1277</v>
+        <v>185</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.5081</v>
+        <v>0.5744</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.4212</v>
+        <v>0.0022</v>
       </c>
       <c r="AY2" t="n">
-        <v>1.0329</v>
+        <v>1.3495</v>
       </c>
       <c r="AZ2" t="n">
         <v>1</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.9992</v>
+        <v>0.9954</v>
       </c>
       <c r="BB2" t="n">
         <v>1</v>
       </c>
       <c r="BC2" t="n">
-        <v>15.6722</v>
+        <v>2.48308</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.500472</v>
+        <v>0.5</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.944</v>
+        <v>1</v>
       </c>
       <c r="BG2" t="inlineStr">
         <is>
-          <t>snp</t>
+          <t>ins</t>
         </is>
       </c>
       <c r="BH2" t="n">
-        <v>28272.6</v>
+        <v>881.492</v>
+      </c>
+      <c r="BI2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
       </c>
       <c r="BJ2" t="inlineStr">
         <is>
-          <t>INT</t>
+          <t>FSI</t>
         </is>
       </c>
       <c r="BK2" t="inlineStr">
@@ -4869,257 +5105,21 @@
       </c>
       <c r="BL2" t="inlineStr">
         <is>
-          <t>{"ASXL1": [["", "", "INT", "ENST00000306058.9", "c.359-9C&gt;T"], ["Q8IXJ9", "", "INT", "ENST00000375687.10", "c.374-9C&gt;T"], ["Q8IXJ9", "", "INT", "ENST00000613218.4", "c.374-9C&gt;T"], ["Q8IXJ9", "", "INT", "ENST00000620121.4", "c.374-9C&gt;T"], ["", "", "INT,NMD", "ENST00000644587.1", "c.*213-9C&gt;T"], ["", "", "INT", "ENST00000646985.1", "c.344-9C&gt;T"], ["", "", "INT", "ENST00000651418.1", "c.374-9C&gt;T"]]}</t>
-        </is>
-      </c>
-      <c r="BN2" t="inlineStr">
-        <is>
-          <t>rs6087903</t>
+          <t>{"ASXL1": [["", "p.Gly641TrpfsTer12", "FSI", "ENST00000306058.9", "c.1919dup"], ["Q8IXJ9", "p.Gly646TrpfsTer12", "FSI", "ENST00000375687.10", "c.1934dup"], ["", "", "2KD,PTR", "ENST00000553345.5", ""], ["Q8IXJ9", "p.Gly646TrpfsTer12", "FSI", "ENST00000613218.4", "c.1934dup"], ["Q8IXJ9", "p.Gly646TrpfsTer12", "FSI", "ENST00000620121.4", "c.1934dup"], ["", "p.Gly585TrpfsTer12", "FSI", "ENST00000646985.1", "c.1751dup"], ["", "", "INT", "ENST00000651418.1", "c.1869+65dup"]]}</t>
         </is>
       </c>
       <c r="BO2" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.0338983050847457</v>
+        <v>0.6440677966101694</v>
       </c>
       <c r="BQ2" t="inlineStr">
         <is>
-          <t>39-23_M9037298; 1025-23_N0142753</t>
+          <t>5331-21_L3219563; 5714-21_L4114728; 7424-21_L6296176; 6815-21_L5309745; 7024-21_L608B767; 126-22; 6377-21; 7179-21; 1622-21; 50-22; 6609-21; 1263-22_L9016385; 4157-22_M3136370; 1859-20_J7265546; 1061-21_K6256100; 846-22_L808C391; 667-22_L8015964; 7153-22_M7256464; 7399-22_M806A652; 5046-19_K3097222; 3887-22_M227C511; 2600-21_K9119359; 6773-22_M7044683; 6529-22_M6269608; 6585-21_L517A790</t>
         </is>
       </c>
       <c r="BR2" t="inlineStr">
-        <is>
-          <t>Hotspot Exceptions</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>chr20</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>31022441</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>AG</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>ASXL1</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>c.1934dup</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>p.Gly646TrpfsTer12</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>NM_015338</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>0.20493</v>
-      </c>
-      <c r="J3" t="n">
-        <v>291</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1420</v>
-      </c>
-      <c r="L3" t="n">
-        <v>8</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>COSV100039898</t>
-        </is>
-      </c>
-      <c r="P3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>[["haematopoietic and lymphoid tissue", 1]]</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>426927.0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>Pathogenic/Likely pathogenic</t>
-        </is>
-      </c>
-      <c r="T3" t="n">
-        <v>0.00067062</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>291</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1129</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.2584070796460177</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0.9965870307167236</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>3.694780105721681e-86</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>2990</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>250</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0.996</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>251</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>0.007900000000000001</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>0.9921</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>250</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>185</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>0.5744</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>0.0022</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>1.3495</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>0.9954</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>2.48308</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG3" t="inlineStr">
-        <is>
-          <t>ins</t>
-        </is>
-      </c>
-      <c r="BH3" t="n">
-        <v>881.492</v>
-      </c>
-      <c r="BI3" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="BJ3" t="inlineStr">
-        <is>
-          <t>FSI</t>
-        </is>
-      </c>
-      <c r="BK3" t="inlineStr">
-        <is>
-          <t>ENST00000375687.10</t>
-        </is>
-      </c>
-      <c r="BL3" t="inlineStr">
-        <is>
-          <t>{"ASXL1": [["", "p.Gly641TrpfsTer12", "FSI", "ENST00000306058.9", "c.1919dup"], ["Q8IXJ9", "p.Gly646TrpfsTer12", "FSI", "ENST00000375687.10", "c.1934dup"], ["", "", "2KD,PTR", "ENST00000553345.5", ""], ["Q8IXJ9", "p.Gly646TrpfsTer12", "FSI", "ENST00000613218.4", "c.1934dup"], ["Q8IXJ9", "p.Gly646TrpfsTer12", "FSI", "ENST00000620121.4", "c.1934dup"], ["", "p.Gly585TrpfsTer12", "FSI", "ENST00000646985.1", "c.1751dup"], ["", "", "INT", "ENST00000651418.1", "c.1869+65dup"]]}</t>
-        </is>
-      </c>
-      <c r="BO3" t="n">
-        <v>38</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>0.6440677966101694</v>
-      </c>
-      <c r="BQ3" t="inlineStr">
-        <is>
-          <t>5331-21_L3219563; 5714-21_L4114728; 7424-21_L6296176; 6815-21_L5309745; 7024-21_L608B767; 126-22; 6377-21; 7179-21; 1622-21; 50-22; 6609-21; 1263-22_L9016385; 4157-22_M3136370; 1859-20_J7265546; 1061-21_K6256100; 846-22_L808C391; 667-22_L8015964; 7153-22_M7256464; 7399-22_M806A652; 5046-19_K3097222; 3887-22_M227C511; 2600-21_K9119359; 6773-22_M7044683; 6529-22_M6269608; 6585-21_L517A790</t>
-        </is>
-      </c>
-      <c r="BR3" t="inlineStr">
         <is>
           <t>Hotspot Exceptions</t>
         </is>
